--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3565.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3565.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.197713365259367</v>
+        <v>0.730049729347229</v>
       </c>
       <c r="B1">
-        <v>1.622976716106128</v>
+        <v>1.927272200584412</v>
       </c>
       <c r="C1">
-        <v>2.705043985023392</v>
+        <v>2.575516700744629</v>
       </c>
       <c r="D1">
-        <v>5.816087924002479</v>
+        <v>0.9227412939071655</v>
       </c>
       <c r="E1">
-        <v>1.281542264046312</v>
+        <v>1.041294932365417</v>
       </c>
     </row>
   </sheetData>
